--- a/Supplementary_tables/Table_S4_ML_baseline_dataset_details.xlsx
+++ b/Supplementary_tables/Table_S4_ML_baseline_dataset_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkk24\Box Sync\Lab stuff\Publications\CRISPR\github_test\CRISPR_OT_scoring\Supplementary_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE23E89D-ABAD-4067-A80E-DD00AEA7EB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52827D14-E425-47B7-8F0B-B7FCCF13A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28E073DA-A9D1-AA45-B6B4-3D59C1EC5723}"/>
   </bookViews>
@@ -163,7 +163,7 @@
   </si>
   <si>
     <r>
-      <t>Supplementary Table S3:</t>
+      <t>Supplementary Table S4:</t>
     </r>
     <r>
       <rPr>
@@ -566,7 +566,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
